--- a/Data/Map/true_positives.xlsx
+++ b/Data/Map/true_positives.xlsx
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1644,16 +1644,16 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>39.852041999999997</v>
+        <v>40.141162999999999</v>
       </c>
       <c r="B44" s="1">
-        <v>-83.002331999999996</v>
+        <v>-82.967010999999999</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
       </c>
       <c r="D44" s="1">
-        <v>102.09943989999999</v>
+        <v>853.26547010000002</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -1673,16 +1673,16 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>40.141162999999999</v>
+        <v>40.148308999999998</v>
       </c>
       <c r="B45" s="1">
-        <v>-82.967010999999999</v>
+        <v>-82.974915999999993</v>
       </c>
       <c r="C45" s="1">
         <v>2</v>
       </c>
       <c r="D45" s="1">
-        <v>853.26547010000002</v>
+        <v>1503.6094189999999</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -1702,45 +1702,45 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>40.148308999999998</v>
+        <v>39.959201</v>
       </c>
       <c r="B46" s="1">
-        <v>-82.974915999999993</v>
+        <v>-82.995092999999997</v>
       </c>
       <c r="C46" s="1">
         <v>2</v>
       </c>
       <c r="D46" s="1">
-        <v>1503.6094189999999</v>
+        <v>3254.6516630000001</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H46" s="2">
         <v>1</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>39.959201</v>
+        <v>39.967285500000003</v>
       </c>
       <c r="B47" s="1">
-        <v>-82.995092999999997</v>
+        <v>-83.006446199999999</v>
       </c>
       <c r="C47" s="1">
         <v>2</v>
       </c>
       <c r="D47" s="1">
-        <v>3254.6516630000001</v>
+        <v>2293.418377</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
@@ -1760,16 +1760,16 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>39.967285500000003</v>
+        <v>39.962024599999999</v>
       </c>
       <c r="B48" s="1">
-        <v>-83.006446199999999</v>
+        <v>-82.994876099999999</v>
       </c>
       <c r="C48" s="1">
         <v>2</v>
       </c>
       <c r="D48" s="1">
-        <v>2293.418377</v>
+        <v>3254.6516630000001</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -1789,16 +1789,16 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>39.962024599999999</v>
+        <v>39.960565899999999</v>
       </c>
       <c r="B49" s="1">
-        <v>-82.994876099999999</v>
+        <v>-83.008424300000001</v>
       </c>
       <c r="C49" s="1">
         <v>2</v>
       </c>
       <c r="D49" s="1">
-        <v>3254.6516630000001</v>
+        <v>3036.0736470000002</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
@@ -1818,10 +1818,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>39.960565899999999</v>
+        <v>39.9614604</v>
       </c>
       <c r="B50" s="1">
-        <v>-83.008424300000001</v>
+        <v>-83.013999900000002</v>
       </c>
       <c r="C50" s="1">
         <v>2</v>
@@ -1847,10 +1847,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>39.9614604</v>
+        <v>39.9614361</v>
       </c>
       <c r="B51" s="1">
-        <v>-83.013999900000002</v>
+        <v>-83.013828399999994</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
@@ -1876,25 +1876,25 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>39.9614361</v>
+        <v>40.049194200000002</v>
       </c>
       <c r="B52" s="1">
-        <v>-83.013828399999994</v>
+        <v>-82.920827599999996</v>
       </c>
       <c r="C52" s="1">
         <v>2</v>
       </c>
       <c r="D52" s="1">
-        <v>3036.0736470000002</v>
+        <v>402.07723520000002</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
       </c>
       <c r="F52" s="1">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2">
         <v>1</v>
@@ -1905,16 +1905,16 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>40.049194200000002</v>
+        <v>40.033373599999997</v>
       </c>
       <c r="B53" s="1">
-        <v>-82.920827599999996</v>
+        <v>-83.016760500000004</v>
       </c>
       <c r="C53" s="1">
         <v>2</v>
       </c>
       <c r="D53" s="1">
-        <v>402.07723520000002</v>
+        <v>6802.0397869999997</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
@@ -1934,25 +1934,25 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>40.033373599999997</v>
+        <v>39.949603600000003</v>
       </c>
       <c r="B54" s="1">
-        <v>-83.016760500000004</v>
+        <v>-82.997724899999994</v>
       </c>
       <c r="C54" s="1">
         <v>2</v>
       </c>
       <c r="D54" s="1">
-        <v>6802.0397869999997</v>
+        <v>6883.5479219999997</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
       </c>
       <c r="F54" s="1">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="G54" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H54" s="2">
         <v>1</v>
@@ -1963,25 +1963,25 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>39.949603600000003</v>
+        <v>39.988759999999999</v>
       </c>
       <c r="B55" s="1">
-        <v>-82.997724899999994</v>
+        <v>-83.047721100000004</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
       </c>
       <c r="D55" s="1">
-        <v>6883.5479219999997</v>
+        <v>6397.7375160000001</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
       </c>
       <c r="F55" s="1">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2">
         <v>1</v>
@@ -1992,25 +1992,25 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>39.988759999999999</v>
+        <v>39.974210999999997</v>
       </c>
       <c r="B56" s="1">
-        <v>-83.047721100000004</v>
+        <v>-83.001040000000003</v>
       </c>
       <c r="C56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1">
-        <v>6397.7375160000001</v>
+        <v>1182.9861129999999</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
       </c>
       <c r="F56" s="1">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="G56" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H56" s="2">
         <v>1</v>
@@ -2021,25 +2021,25 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>39.974210999999997</v>
+        <v>40.006568199999997</v>
       </c>
       <c r="B57" s="1">
-        <v>-83.001040000000003</v>
+        <v>-83.0511932</v>
       </c>
       <c r="C57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" s="1">
-        <v>1182.9861129999999</v>
+        <v>6188.9643409999999</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
       </c>
       <c r="F57" s="1">
-        <v>5.5</v>
+        <v>13.1</v>
       </c>
       <c r="G57" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H57" s="2">
         <v>1</v>
@@ -2050,59 +2050,30 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>40.006568199999997</v>
+        <v>40.0323669</v>
       </c>
       <c r="B58" s="1">
-        <v>-83.0511932</v>
+        <v>-83.000612500000003</v>
       </c>
       <c r="C58" s="1">
         <v>2</v>
       </c>
       <c r="D58" s="1">
-        <v>6188.9643409999999</v>
+        <v>5323.8273259999996</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
       </c>
       <c r="F58" s="1">
-        <v>13.1</v>
+        <v>5.5</v>
       </c>
       <c r="G58" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H58" s="2">
         <v>1</v>
       </c>
       <c r="I58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>40.0323669</v>
-      </c>
-      <c r="B59" s="1">
-        <v>-83.000612500000003</v>
-      </c>
-      <c r="C59" s="1">
-        <v>2</v>
-      </c>
-      <c r="D59" s="1">
-        <v>5323.8273259999996</v>
-      </c>
-      <c r="E59" s="1">
-        <v>1</v>
-      </c>
-      <c r="F59" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="G59" s="1">
-        <v>3</v>
-      </c>
-      <c r="H59" s="2">
-        <v>1</v>
-      </c>
-      <c r="I59" s="1">
         <v>1</v>
       </c>
     </row>
